--- a/programs/frameworks/neural/data/nb.xlsx
+++ b/programs/frameworks/neural/data/nb.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B411479F-63FA-44E4-BB50-EA530ED8F614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF9D76E-E216-49F1-B4F5-4CB02786D7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21180" yWindow="696" windowWidth="18060" windowHeight="13920" xr2:uid="{2B653FE1-F82A-4ACE-9CB1-3CA6756D5760}"/>
+    <workbookView xWindow="21012" yWindow="2496" windowWidth="18060" windowHeight="13920" activeTab="1" xr2:uid="{2B653FE1-F82A-4ACE-9CB1-3CA6756D5760}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Naive Bayes" sheetId="1" r:id="rId1"/>
+    <sheet name="K-Nearest Neighbor" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Friend</t>
   </si>
@@ -48,6 +49,33 @@
   </si>
   <si>
     <t>Dear</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>f5</t>
   </si>
 </sst>
 </file>
@@ -401,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A2D949-3F5B-4149-AD76-241343D87915}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -554,4 +582,236 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3F9CB3-F997-45DE-8E16-9FAFF1CFE981}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.35</v>
+      </c>
+      <c r="B2">
+        <v>0.91</v>
+      </c>
+      <c r="C2">
+        <v>0.86</v>
+      </c>
+      <c r="D2">
+        <v>0.42</v>
+      </c>
+      <c r="E2">
+        <v>0.71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.21</v>
+      </c>
+      <c r="B3">
+        <v>0.12</v>
+      </c>
+      <c r="C3">
+        <v>0.76</v>
+      </c>
+      <c r="D3">
+        <v>0.22</v>
+      </c>
+      <c r="E3">
+        <v>0.92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.41</v>
+      </c>
+      <c r="B4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C4">
+        <v>0.73</v>
+      </c>
+      <c r="D4">
+        <v>0.21</v>
+      </c>
+      <c r="E4">
+        <v>0.09</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.71</v>
+      </c>
+      <c r="B5">
+        <v>0.34</v>
+      </c>
+      <c r="C5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D5">
+        <v>0.19</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.79</v>
+      </c>
+      <c r="B6">
+        <v>0.45</v>
+      </c>
+      <c r="C6">
+        <v>0.79</v>
+      </c>
+      <c r="D6">
+        <v>0.21</v>
+      </c>
+      <c r="E6">
+        <v>0.44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.61</v>
+      </c>
+      <c r="B7">
+        <v>0.37</v>
+      </c>
+      <c r="C7">
+        <v>0.34</v>
+      </c>
+      <c r="D7">
+        <v>0.81</v>
+      </c>
+      <c r="E7">
+        <v>0.42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.78</v>
+      </c>
+      <c r="B8">
+        <v>0.12</v>
+      </c>
+      <c r="C8">
+        <v>0.31</v>
+      </c>
+      <c r="D8">
+        <v>0.83</v>
+      </c>
+      <c r="E8">
+        <v>0.87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.52</v>
+      </c>
+      <c r="B9">
+        <v>0.23</v>
+      </c>
+      <c r="C9">
+        <v>0.73</v>
+      </c>
+      <c r="D9">
+        <v>0.45</v>
+      </c>
+      <c r="E9">
+        <v>0.78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.53</v>
+      </c>
+      <c r="B10">
+        <v>0.17</v>
+      </c>
+      <c r="C10">
+        <v>0.63</v>
+      </c>
+      <c r="D10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.65</v>
+      </c>
+      <c r="B12">
+        <v>0.78</v>
+      </c>
+      <c r="C12">
+        <v>0.21</v>
+      </c>
+      <c r="D12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E12">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/programs/frameworks/neural/data/nb.xlsx
+++ b/programs/frameworks/neural/data/nb.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF9D76E-E216-49F1-B4F5-4CB02786D7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065D613D-C288-4259-87CF-B6DEAB28F93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21012" yWindow="2496" windowWidth="18060" windowHeight="13920" activeTab="1" xr2:uid="{2B653FE1-F82A-4ACE-9CB1-3CA6756D5760}"/>
+    <workbookView xWindow="21552" yWindow="1344" windowWidth="20952" windowHeight="13800" activeTab="2" xr2:uid="{2B653FE1-F82A-4ACE-9CB1-3CA6756D5760}"/>
   </bookViews>
   <sheets>
     <sheet name="Naive Bayes" sheetId="1" r:id="rId1"/>
     <sheet name="K-Nearest Neighbor" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={BC68223C-F6F2-4A59-8943-51B4C8A7E6BF}</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{BC68223C-F6F2-4A59-8943-51B4C8A7E6BF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    https://www.youtube.com/watch?v=4HKqjENq9OU</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Friend</t>
   </si>
@@ -76,19 +95,57 @@
   </si>
   <si>
     <t>f5</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>underweight</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>k=3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,8 +168,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,6 +187,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Randy Hollines" id="{9972FA96-0D23-4C46-9156-AD090E4C3934}" userId="021f83c86c5682e8" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,6 +490,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2023-11-12T11:42:56.05" personId="{9972FA96-0D23-4C46-9156-AD090E4C3934}" id="{BC68223C-F6F2-4A59-8943-51B4C8A7E6BF}">
+    <text>https://www.youtube.com/watch?v=4HKqjENq9OU</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>839801697</xltc2:checksum>
+        <xltc2:hyperlink startIndex="0" length="43" url="https://www.youtube.com/watch?v=4HKqjENq9OU"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A2D949-3F5B-4149-AD76-241343D87915}">
   <dimension ref="A1:E14"/>
@@ -588,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3F9CB3-F997-45DE-8E16-9FAFF1CFE981}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,4 +893,198 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC8F3B2-1796-4DA5-80A9-4BD83837F45B}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SQRT(($G$2-B2) * ($G$2-B2) + ($F$2-A2) * ($F$2-A2))</f>
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="F2">
+        <v>57</v>
+      </c>
+      <c r="G2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SQRT(($G$2-B3) * ($G$2-B3) + ($F$2-A3) * ($F$2-A3))</f>
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <f>SQRT(($G$2-B4) * ($G$2-B4) + ($F$2-A4) * ($F$2-A4))</f>
+        <v>13.416407864998739</v>
+      </c>
+      <c r="F4" s="1">
+        <f>SMALL($D$2:$D$10,ROWS(C$2:C2))</f>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <f>SQRT(($G$2-B5) * ($G$2-B5) + ($F$2-A5) * ($F$2-A5))</f>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="F5" s="1">
+        <f>SMALL($D$2:$D$10,ROWS(C$2:C3))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>172</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SQRT(($G$2-B6) * ($G$2-B6) + ($F$2-A6) * ($F$2-A6))</f>
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="F6" s="1">
+        <f>SMALL($D$2:$D$10,ROWS(C$2:C4))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <v>174</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <f>SQRT(($G$2-B7) * ($G$2-B7) + ($F$2-A7) * ($F$2-A7))</f>
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>169</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <f>SQRT(($G$2-B8) * ($G$2-B8) + ($F$2-A8) * ($F$2-A8))</f>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <f>SQRT(($G$2-B9) * ($G$2-B9) + ($F$2-A9) * ($F$2-A9))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>170</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1">
+        <f>SQRT(($G$2-B10) * ($G$2-B10) + ($F$2-A10) * ($F$2-A10))</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/programs/frameworks/neural/data/nb.xlsx
+++ b/programs/frameworks/neural/data/nb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065D613D-C288-4259-87CF-B6DEAB28F93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F92DC12-E3D6-4831-9A49-8BE21061E6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21552" yWindow="1344" windowWidth="20952" windowHeight="13800" activeTab="2" xr2:uid="{2B653FE1-F82A-4ACE-9CB1-3CA6756D5760}"/>
+    <workbookView xWindow="1308" yWindow="1416" windowWidth="19548" windowHeight="13440" activeTab="2" xr2:uid="{2B653FE1-F82A-4ACE-9CB1-3CA6756D5760}"/>
   </bookViews>
   <sheets>
     <sheet name="Naive Bayes" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Friend</t>
   </si>
@@ -125,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,12 +140,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,6 +181,1278 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>weight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1F12D9C7-8F2D-48D1-A650-AC59E7329F1E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-358F-4261-B975-27C508EE91AE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{63D7C76D-D1D2-49D1-99DD-75F09D13D831}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-358F-4261-B975-27C508EE91AE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6470D92A-98EA-4C3D-92CE-056504410190}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-358F-4261-B975-27C508EE91AE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{64DB22D6-A7AC-48AB-B6EC-E80910E18C49}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-358F-4261-B975-27C508EE91AE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{ADAF02A4-A7D9-4ABF-A706-182240A57695}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-358F-4261-B975-27C508EE91AE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1490D6AB-14C4-48E7-AD13-FC623311D60D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-358F-4261-B975-27C508EE91AE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2C7A14C9-26F4-4A06-B61E-566A1C7B4C7C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-358F-4261-B975-27C508EE91AE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CBAC82E5-2568-49D9-8AFD-09D9381FA674}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-358F-4261-B975-27C508EE91AE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{880C704D-E795-4A1D-B20B-8BAC6A2F3F76}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-358F-4261-B975-27C508EE91AE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet2!$C$2:$C$10</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>underweight</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>normal</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>normal</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>normal</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>normal</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>underweight</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>normal</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>normal</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>normal</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-358F-4261-B975-27C508EE91AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1815081919"/>
+        <c:axId val="2012043807"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1815081919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2012043807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2012043807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1815081919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>392430</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7568C83D-8272-FF76-32D7-284E1BD086A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -900,7 +2166,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,6 +2179,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
@@ -937,7 +2209,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <f>SQRT(($G$2-B2) * ($G$2-B2) + ($F$2-A2) * ($F$2-A2))</f>
+        <f t="shared" ref="D2:D10" si="0">SQRT(($G$2-B2) * ($G$2-B2) + ($F$2-A2) * ($F$2-A2))</f>
         <v>6.7082039324993694</v>
       </c>
       <c r="F2">
@@ -958,7 +2230,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <f>SQRT(($G$2-B3) * ($G$2-B3) + ($F$2-A3) * ($F$2-A3))</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -976,7 +2248,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="1">
-        <f>SQRT(($G$2-B4) * ($G$2-B4) + ($F$2-A4) * ($F$2-A4))</f>
+        <f t="shared" si="0"/>
         <v>13.416407864998739</v>
       </c>
       <c r="F4" s="1">
@@ -995,7 +2267,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1">
-        <f>SQRT(($G$2-B5) * ($G$2-B5) + ($F$2-A5) * ($F$2-A5))</f>
+        <f t="shared" si="0"/>
         <v>7.6157731058639087</v>
       </c>
       <c r="F5" s="1">
@@ -1014,7 +2286,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1">
-        <f>SQRT(($G$2-B6) * ($G$2-B6) + ($F$2-A6) * ($F$2-A6))</f>
+        <f t="shared" si="0"/>
         <v>8.2462112512353212</v>
       </c>
       <c r="F6" s="1">
@@ -1033,7 +2305,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="1">
-        <f>SQRT(($G$2-B7) * ($G$2-B7) + ($F$2-A7) * ($F$2-A7))</f>
+        <f t="shared" si="0"/>
         <v>4.1231056256176606</v>
       </c>
     </row>
@@ -1048,7 +2320,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="1">
-        <f>SQRT(($G$2-B8) * ($G$2-B8) + ($F$2-A8) * ($F$2-A8))</f>
+        <f t="shared" si="0"/>
         <v>1.4142135623730951</v>
       </c>
     </row>
@@ -1063,7 +2335,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="1">
-        <f>SQRT(($G$2-B9) * ($G$2-B9) + ($F$2-A9) * ($F$2-A9))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1078,13 +2350,14 @@
         <v>15</v>
       </c>
       <c r="D10" s="1">
-        <f>SQRT(($G$2-B10) * ($G$2-B10) + ($F$2-A10) * ($F$2-A10))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>